--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Desktop\Public Github\PowerQueryforAccountants\Creating-a-Simple-Accounting-System-with-Excel-and-Power-Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FEDE0-145F-44CB-9667-61FF5249D95D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6E47D-7611-459D-9BAC-79A696C42811}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,27 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="accounts">[1]!_2_AccountsT[Account Name]</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$18</definedName>
+    <definedName name="accounts">[1]!#REF!</definedName>
     <definedName name="customers">[1]!CustomersT[Customer Name]</definedName>
     <definedName name="suppliers">[1]!SuppliersT[Supplier Name]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Date (MM/DD/YYYY)</t>
   </si>
@@ -65,9 +71,6 @@
     <t>CHK99723796</t>
   </si>
   <si>
-    <t>Pearl Co</t>
-  </si>
-  <si>
     <t>Lae Co</t>
   </si>
   <si>
@@ -77,30 +80,18 @@
     <t>Working Meals</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuans  </t>
-  </si>
-  <si>
-    <t>Nuans Report for Profitable Results</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
     <t>Paper</t>
   </si>
   <si>
-    <t>Revenue Canada</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
     <t>Paid In Capital</t>
   </si>
   <si>
-    <t>Chris R. Keller</t>
-  </si>
-  <si>
     <t>Owners Equity</t>
   </si>
   <si>
@@ -110,33 +101,18 @@
     <t>Mau Co</t>
   </si>
   <si>
-    <t>Noemi Co</t>
-  </si>
-  <si>
     <t>Computer Software</t>
   </si>
   <si>
-    <t>The Source</t>
-  </si>
-  <si>
-    <t>Battery for phone at 50% for business</t>
-  </si>
-  <si>
     <t>CHK20017</t>
   </si>
   <si>
-    <t>Ivy Co</t>
-  </si>
-  <si>
     <t>Kristine Co</t>
   </si>
   <si>
     <t>Sales Expenses</t>
   </si>
   <si>
-    <t>Golden Triangle Printing</t>
-  </si>
-  <si>
     <t>Business Cards</t>
   </si>
   <si>
@@ -146,24 +122,15 @@
     <t>Accounts Receivable</t>
   </si>
   <si>
-    <t>Yabba Dabba Cabba</t>
-  </si>
-  <si>
     <t>Invoice for Services</t>
   </si>
   <si>
     <t>Base Fees</t>
   </si>
   <si>
-    <t>Your Company</t>
-  </si>
-  <si>
     <t>Revenue billed for services</t>
   </si>
   <si>
-    <t>Jasha Co</t>
-  </si>
-  <si>
     <t>Payment Received</t>
   </si>
   <si>
@@ -180,6 +147,21 @@
   </si>
   <si>
     <t>Bills Payment</t>
+  </si>
+  <si>
+    <t>Office stationery</t>
+  </si>
+  <si>
+    <t>Office 365</t>
+  </si>
+  <si>
+    <t>Lunch for staff</t>
+  </si>
+  <si>
+    <t>Kim Co</t>
+  </si>
+  <si>
+    <t>Arlene Co</t>
   </si>
 </sst>
 </file>
@@ -342,23 +324,23 @@
       <sheetName val="AR Aging"/>
       <sheetName val="AP Aging"/>
       <sheetName val="TB"/>
-      <sheetName val="IS"/>
+      <sheetName val="P&amp;L"/>
       <sheetName val="BS"/>
       <sheetName val="Trans Examples"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -627,10 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,23 +663,19 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8">
         <v>20</v>
@@ -709,23 +688,19 @@
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -738,23 +713,19 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" s="8">
         <v>-21</v>
@@ -765,25 +736,21 @@
         <v>40344</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I5" s="12">
         <v>12.49</v>
@@ -794,25 +761,21 @@
         <v>40344</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I6" s="8">
         <v>1.63</v>
@@ -823,25 +786,21 @@
         <v>40344</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I7" s="12">
         <v>-14.12</v>
@@ -852,25 +811,21 @@
         <v>40346</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8" s="8">
         <v>78</v>
@@ -881,25 +836,21 @@
         <v>40346</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I9" s="12">
         <v>10.14</v>
@@ -910,25 +861,21 @@
         <v>40346</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8">
         <v>-88.14</v>
@@ -939,25 +886,21 @@
         <v>40434</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I11" s="12">
         <v>1000</v>
@@ -968,25 +911,21 @@
         <v>40434</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I12" s="8">
         <v>-1000</v>
@@ -997,25 +936,21 @@
         <v>40441</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I13" s="12">
         <v>-500</v>
@@ -1026,25 +961,21 @@
         <v>40441</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="8">
         <v>500</v>
@@ -1055,25 +986,21 @@
         <v>40434</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I15" s="12">
         <v>900</v>
@@ -1084,25 +1011,21 @@
         <v>40434</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I16" s="8">
         <v>-900</v>
@@ -1113,25 +1036,21 @@
         <v>40441</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I17" s="12">
         <v>800</v>
@@ -1142,31 +1061,28 @@
         <v>40441</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8">
         <v>-800</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I18" xr:uid="{8CA1D02C-FFEE-440C-91EE-0965F96879E5}"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{D984D59F-27F8-42C3-85F9-4D25BED3DB3C}">
       <formula1>accounts</formula1>
